--- a/files/COVID_article/AppendixTab2.xlsx
+++ b/files/COVID_article/AppendixTab2.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DiffIT</t>
+          <t>AgeComp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AgeCompIT</t>
+          <t>RateComp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RateCompIT</t>
+          <t>Diff</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -429,13 +429,13 @@
         <v>0.02203125</v>
       </c>
       <c r="E2">
+        <v>0.07717615170773866</v>
+      </c>
+      <c r="F2">
+        <v>0.04109327825316879</v>
+      </c>
+      <c r="G2">
         <v>0.1182694299609074</v>
-      </c>
-      <c r="F2">
-        <v>0.07717615170773866</v>
-      </c>
-      <c r="G2">
-        <v>0.04109327825316879</v>
       </c>
       <c r="H2">
         <v>0.6525452243512826</v>
@@ -462,13 +462,13 @@
         <v>0.02290248925501433</v>
       </c>
       <c r="E3">
+        <v>0.05714758074182483</v>
+      </c>
+      <c r="F3">
+        <v>0.06025060996406829</v>
+      </c>
+      <c r="G3">
         <v>0.1173981907058931</v>
-      </c>
-      <c r="F3">
-        <v>0.05714758074182483</v>
-      </c>
-      <c r="G3">
-        <v>0.06025060996406829</v>
       </c>
       <c r="H3">
         <v>0.4867841693147674</v>
@@ -495,13 +495,13 @@
         <v>0.046583205517734</v>
       </c>
       <c r="E4">
+        <v>0.05882690109089572</v>
+      </c>
+      <c r="F4">
+        <v>0.03489057335227774</v>
+      </c>
+      <c r="G4">
         <v>0.09371747444317345</v>
-      </c>
-      <c r="F4">
-        <v>0.05882690109089572</v>
-      </c>
-      <c r="G4">
-        <v>0.03489057335227774</v>
       </c>
       <c r="H4">
         <v>0.6277047203887894</v>
@@ -528,13 +528,13 @@
         <v>0.04973334332730966</v>
       </c>
       <c r="E5">
+        <v>0.07056671762520113</v>
+      </c>
+      <c r="F5">
+        <v>0.02000061900839665</v>
+      </c>
+      <c r="G5">
         <v>0.09056733663359778</v>
-      </c>
-      <c r="F5">
-        <v>0.07056671762520113</v>
-      </c>
-      <c r="G5">
-        <v>0.02000061900839665</v>
       </c>
       <c r="H5">
         <v>0.7791629990256661</v>
@@ -561,13 +561,13 @@
         <v>0.08719684220304529</v>
       </c>
       <c r="E6">
+        <v>0.08378443286145275</v>
+      </c>
+      <c r="F6">
+        <v>-0.03068059510359059</v>
+      </c>
+      <c r="G6">
         <v>0.05310383775786216</v>
-      </c>
-      <c r="F6">
-        <v>0.08378443286145275</v>
-      </c>
-      <c r="G6">
-        <v>-0.03068059510359059</v>
       </c>
       <c r="H6">
         <v>0.7319653378064067</v>
@@ -594,13 +594,13 @@
         <v>0.121913536873179</v>
       </c>
       <c r="E7">
+        <v>0.00587308566284433</v>
+      </c>
+      <c r="F7">
+        <v>0.01251405742488415</v>
+      </c>
+      <c r="G7">
         <v>0.01838714308772849</v>
-      </c>
-      <c r="F7">
-        <v>0.00587308566284433</v>
-      </c>
-      <c r="G7">
-        <v>0.01251405742488415</v>
       </c>
       <c r="H7">
         <v>0.3194126262477399</v>
